--- a/ykodama/ddbj_packages/excel/MIMS.me.microbial.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.microbial.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -119,7 +119,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below local surface. Depth can be reported as an interval for subsurface samples.</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -145,7 +145,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -158,7 +158,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -171,7 +171,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -184,7 +184,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -197,7 +197,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -288,7 +288,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>amount of biomass; should include the name for the part of biomass measured</t>
+          <t>amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements</t>
         </r>
       </text>
     </comment>
@@ -353,7 +353,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of chemical compounds administered to the host or site where sampling occurred, and when</t>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
         </r>
       </text>
     </comment>
@@ -392,7 +392,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of diether lipids</t>
+          <t>concentration of diether lipids; can include multiple types of diether lipids</t>
         </r>
       </text>
     </comment>
@@ -457,7 +457,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>dissolved organic nitrogen concentration</t>
+          <t>dissolved organic nitrogen concentration measured as; total dissolved nitrogen - NH4 - NO3 - NO2</t>
         </r>
       </text>
     </comment>
@@ -496,7 +496,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -548,7 +548,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>methane (gas) amount or concentration</t>
+          <t>methane (gas) amount or concentration at the time of sampling</t>
         </r>
       </text>
     </comment>
@@ -574,7 +574,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of n-alkanes</t>
+          <t>concentration of n-alkanes; can include multiple n-alkanes</t>
         </r>
       </text>
     </comment>
@@ -665,7 +665,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -704,7 +704,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred</t>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
         </r>
       </text>
     </comment>
@@ -743,7 +743,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of phaeopigments</t>
+          <t>concentration of phaeopigments; can include multiple phaeopigments</t>
         </r>
       </text>
     </comment>
@@ -769,7 +769,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of phospholipid fatty acids</t>
+          <t>concentration of phospholipid fatty acids; can include multiple values</t>
         </r>
       </text>
     </comment>
@@ -977,7 +977,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -1016,7 +1016,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIMS.me.microbial.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.microbial.4.0.xlsx
@@ -310,6 +310,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -394,7 +397,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIMS.me.microbial.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.microbial.4.0.xlsx
@@ -201,12 +201,896 @@
         </r>
       </text>
     </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of alkyl diethers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of aminopeptidase activity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of ammonium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of bacterial carbon production</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of bishomohopanol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of bromide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of calcium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ratio of amount or concentrations of carbon to nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of chloride</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of chlorophyll</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of diether lipids; can include multiple types of diether lipids</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved carbon dioxide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved hydrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dissolved inorganic carbon concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dissolved organic nitrogen concentration measured as; total dissolved nitrogen - NH4 - NO3 - NO2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved oxygen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of glucosidase activity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of magnesium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of mean friction velocity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of mean peak friction velocity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>methane (gas) amount or concentration at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of n-alkanes; can include multiple n-alkanes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrite</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrogen (total)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of organic matter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of organic nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of particulate organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of petroleum hydrocarbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of phaeopigments; can include multiple phaeopigments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of phosphate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of phospholipid fatty acids; can include multiple values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of potassium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pressure to which the sample is subject, in atmospheres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>salinity measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>duration for which sample was stored</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature at which sample was stored, e.g. -80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of silicate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sodium concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of sulfate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of sulfide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total carbon content</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total nitrogen content of the sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition for soil: total organic C content of the soil units of g C/kg soil. Definition otherwise: total organic carbon content</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>turbidity measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>water content measurement</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMS: metagenome/environmental, microbial; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -304,6 +1188,210 @@
   </si>
   <si>
     <t>lat_lon</t>
+  </si>
+  <si>
+    <t>alkalinity</t>
+  </si>
+  <si>
+    <t>alkyl_diethers</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>aminopept_act</t>
+  </si>
+  <si>
+    <t>ammonium</t>
+  </si>
+  <si>
+    <t>bacteria_carb_prod</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>bishomohopanol</t>
+  </si>
+  <si>
+    <t>bromide</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>carb_nitro_ratio</t>
+  </si>
+  <si>
+    <t>chem_administration</t>
+  </si>
+  <si>
+    <t>chloride</t>
+  </si>
+  <si>
+    <t>chlorophyll</t>
+  </si>
+  <si>
+    <t>diether_lipids</t>
+  </si>
+  <si>
+    <t>diss_carb_dioxide</t>
+  </si>
+  <si>
+    <t>diss_hydrogen</t>
+  </si>
+  <si>
+    <t>diss_inorg_carb</t>
+  </si>
+  <si>
+    <t>diss_org_carb</t>
+  </si>
+  <si>
+    <t>diss_org_nitro</t>
+  </si>
+  <si>
+    <t>diss_oxygen</t>
+  </si>
+  <si>
+    <t>glucosidase_act</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>magnesium</t>
+  </si>
+  <si>
+    <t>mean_frict_vel</t>
+  </si>
+  <si>
+    <t>mean_peak_frict_vel</t>
+  </si>
+  <si>
+    <t>methane</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>n_alkanes</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>nitrite</t>
+  </si>
+  <si>
+    <t>nitro</t>
+  </si>
+  <si>
+    <t>org_carb</t>
+  </si>
+  <si>
+    <t>org_matter</t>
+  </si>
+  <si>
+    <t>org_nitro</t>
+  </si>
+  <si>
+    <t>organism_count</t>
+  </si>
+  <si>
+    <t>oxy_stat_samp</t>
+  </si>
+  <si>
+    <t>part_org_carb</t>
+  </si>
+  <si>
+    <t>perturbation</t>
+  </si>
+  <si>
+    <t>petroleum_hydrocarb</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>phaeopigments</t>
+  </si>
+  <si>
+    <t>phosphate</t>
+  </si>
+  <si>
+    <t>phosplipid_fatt_acid</t>
+  </si>
+  <si>
+    <t>potassium</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>redox_potential</t>
+  </si>
+  <si>
+    <t>ref_biomaterial</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>salinity</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_store_dur</t>
+  </si>
+  <si>
+    <t>samp_store_loc</t>
+  </si>
+  <si>
+    <t>samp_store_temp</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>silicate</t>
+  </si>
+  <si>
+    <t>sodium</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>sulfate</t>
+  </si>
+  <si>
+    <t>sulfide</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>tot_carb</t>
+  </si>
+  <si>
+    <t>tot_nitro</t>
+  </si>
+  <si>
+    <t>tot_org_carb</t>
+  </si>
+  <si>
+    <t>turbidity</t>
+  </si>
+  <si>
+    <t>water_content</t>
   </si>
 </sst>
 </file>
@@ -721,77 +1809,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:82">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:82">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1">
+    <row r="3" spans="1:82" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1">
+    <row r="4" spans="1:82" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1">
+    <row r="5" spans="1:82" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:82">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:82">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:82">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:82">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:82">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:82">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:82">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:82">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:82">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:82">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -833,6 +1921,210 @@
       </c>
       <c r="N15" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD15" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
